--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,18 +110,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>针对小说和分卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>仅针对文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>针对小说和分卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅针对文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面包屑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,10 @@
   </si>
   <si>
     <t>待优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式未修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,11 +232,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,6 +549,7 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -568,201 +569,200 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+      <c r="E12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>20</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
-        <v>21</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24822"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558DC74-6466-4CAA-9882-89D768E5C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="首页" sheetId="1" r:id="rId1"/>
+    <sheet name="后台" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,13 +176,105 @@
   </si>
   <si>
     <t>样式未修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出树组件进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能没有意义，待增加功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员可控制弹出公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持模糊搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持多类型搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A、B、C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +310,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,12 +329,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,6 +350,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +434,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,6 +486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,22 +678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
@@ -604,7 +745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
@@ -613,15 +754,19 @@
       <c r="E4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G4" s="4"/>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -630,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
@@ -640,129 +785,148 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" t="s">
-        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A2:A21"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -771,25 +935,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24822"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558DC74-6466-4CAA-9882-89D768E5C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,37 +243,13 @@
   </si>
   <si>
     <t>支持多类型搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小说名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小说类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> A、B、C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,13 +308,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,26 +409,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,23 +444,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,22 +619,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,11 +657,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -731,9 +672,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -745,39 +686,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="H4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -785,40 +726,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -826,9 +767,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -838,9 +779,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -848,9 +789,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -858,9 +799,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
@@ -868,9 +809,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -878,16 +819,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
@@ -897,9 +838,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -907,9 +848,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -935,22 +876,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="B17:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
@@ -972,8 +913,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -990,8 +931,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -1003,201 +944,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
       <c r="J4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1209,12 +997,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF2029-42F1-4D91-8C75-EF9186D6346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,13 +244,17 @@
   </si>
   <si>
     <t>支持多类型搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,9 +414,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,6 +466,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,22 +658,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -672,7 +711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
@@ -686,7 +725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
@@ -700,14 +739,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -716,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -726,21 +765,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
@@ -750,14 +789,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -767,7 +806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -779,27 +818,33 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
@@ -809,7 +854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -819,14 +864,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>27</v>
@@ -838,7 +883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" t="s">
@@ -848,7 +893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" t="s">
@@ -876,21 +921,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="B17:G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
@@ -913,7 +958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -931,7 +976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="C3" t="s">
         <v>54</v>
@@ -944,7 +989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>55</v>
@@ -957,34 +1002,34 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
   </sheetData>
@@ -997,12 +1042,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF2029-42F1-4D91-8C75-EF9186D6346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A96EAD-9C5D-4C14-9169-BA1AD87A0397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>修改样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只用列表展示，不以树结构展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -867,7 +875,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -922,15 +930,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
@@ -1032,12 +1041,46 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A96EAD-9C5D-4C14-9169-BA1AD87A0397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A432D2-5024-4CB2-8FE8-3A5C3ECE0A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>只用列表展示，不以树结构展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -884,7 +892,7 @@
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
@@ -894,7 +902,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
@@ -904,7 +912,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
@@ -914,8 +922,37 @@
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A24:A30"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B12"/>
@@ -932,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24907"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A432D2-5024-4CB2-8FE8-3A5C3ECE0A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F2362-0471-4261-B5A8-6C0C019510BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,19 +251,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收藏管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只用列表展示，不以树结构展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小说模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系列模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有显示'-'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅管理员可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列和小说直接跳转，文件夹不允许点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列、小说和文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的书架（改名收藏管理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要研究研究sql如何写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,17 +389,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,19 +756,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,11 +791,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -727,9 +806,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -741,9 +820,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,25 +834,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -781,23 +860,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
@@ -805,16 +884,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -822,9 +901,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -834,9 +913,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -847,9 +926,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -860,9 +939,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
@@ -870,9 +949,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -880,16 +959,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -899,9 +978,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
@@ -909,9 +988,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
@@ -922,32 +1001,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -967,153 +1046,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="C3" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="C4" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1127,7 +1327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的小说网站/设计/模块/模块功能.xlsx
+++ b/自己的小说网站/设计/模块/模块功能.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24912"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F2362-0471-4261-B5A8-6C0C019510BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DBEC40-C069-479C-B01C-F028A7FED8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
     <sheet name="后台" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="管理员后台" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>模块名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,114 @@
   </si>
   <si>
     <t>需要研究研究sql如何写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总章节数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总字数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看分卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少钱买哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx/xx M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -408,6 +516,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -792,10 +906,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -807,8 +921,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -821,8 +935,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -835,15 +949,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -851,8 +965,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -861,22 +975,22 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
@@ -885,15 +999,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -902,8 +1016,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -914,8 +1028,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -927,8 +1041,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -940,8 +1054,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
@@ -950,8 +1064,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -960,15 +1074,15 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -979,8 +1093,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
@@ -989,8 +1103,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1002,27 +1116,27 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -1046,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1086,10 +1200,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1101,8 +1215,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="6" t="s">
         <v>61</v>
       </c>
@@ -1112,8 +1226,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>63</v>
       </c>
@@ -1123,8 +1237,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>62</v>
       </c>
@@ -1133,15 +1247,15 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1152,8 +1266,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
@@ -1162,8 +1276,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
@@ -1172,8 +1286,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
@@ -1182,15 +1296,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1198,15 +1312,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1215,10 +1329,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1229,7 +1343,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
@@ -1237,8 +1352,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
@@ -1250,70 +1366,241 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A28:A36"/>
+  <mergeCells count="10">
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A39:A45"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="A15:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
